--- a/テンプレート/ラベル_特大.xlsx
+++ b/テンプレート/ラベル_特大.xlsx
@@ -1,70 +1,667 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="22305" yWindow="1665" windowWidth="27285" windowHeight="18375" tabRatio="708" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ラベル" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ラベル 特大" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'ラベル 特大'!$A$1:$D$20</definedName>
+  </definedNames>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+  <fonts count="91">
+    <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <sz val="6"/>
+    </font>
+    <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <sz val="20"/>
+    </font>
+    <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="HG丸ｺﾞｼｯｸM-PRO"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color indexed="9"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="HGS創英角ﾎﾟｯﾌﾟ体"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <sz val="16"/>
+    </font>
+    <font>
+      <name val="HGS創英角ﾎﾟｯﾌﾟ体"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <sz val="48"/>
+    </font>
+    <font>
+      <name val="HG丸ｺﾞｼｯｸM-PRO"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <b val="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="HG丸ｺﾞｼｯｸM-PRO"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <b val="1"/>
+      <color indexed="9"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <sz val="8"/>
+    </font>
+    <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <sz val="13"/>
+    </font>
+    <font>
+      <name val="HG丸ｺﾞｼｯｸM-PRO"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color indexed="9"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="ＪＳ平成明朝体W3"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <sz val="20"/>
+    </font>
+    <font>
+      <name val="ＪＳ平成明朝体W3"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color indexed="9"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="ＪＳ平成明朝体W3"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="ＪＳ平成明朝体W3"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <sz val="13"/>
+    </font>
+    <font>
+      <name val="ＪＳ平成明朝体W3"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color indexed="9"/>
+      <sz val="13"/>
+    </font>
+    <font>
+      <name val="ＪＳ平成明朝体W3"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <b val="1"/>
+      <sz val="20"/>
+    </font>
+    <font>
+      <name val="ＪＳ平成明朝体W3"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <b val="1"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="ＪＳ平成明朝体W3"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <b val="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="ＪＳ平成明朝体W3"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <b val="1"/>
+      <sz val="13"/>
+    </font>
+    <font>
+      <name val="ＪＳ平成明朝体W3"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="ＪＳ平成明朝体W3"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <b val="1"/>
+      <color indexed="9"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="HGS創英角ﾎﾟｯﾌﾟ体"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="HGS創英角ﾎﾟｯﾌﾟ体"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <sz val="20"/>
+    </font>
+    <font>
+      <name val="HGS創英角ﾎﾟｯﾌﾟ体"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <sz val="8"/>
+    </font>
+    <font>
+      <name val="HGS創英角ﾎﾟｯﾌﾟ体"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color indexed="9"/>
+      <sz val="8"/>
+    </font>
+    <font>
+      <name val="HGS創英角ﾎﾟｯﾌﾟ体"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color indexed="48"/>
+      <sz val="20"/>
+    </font>
+    <font>
+      <name val="HGS創英角ﾎﾟｯﾌﾟ体"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color indexed="12"/>
+      <sz val="20"/>
+    </font>
+    <font>
+      <name val="HGS創英角ﾎﾟｯﾌﾟ体"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color indexed="9"/>
+      <sz val="20"/>
+    </font>
+    <font>
+      <name val="HG創英角ﾎﾟｯﾌﾟ体"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color indexed="9"/>
+      <sz val="8"/>
+    </font>
+    <font>
+      <name val="HG創英角ﾎﾟｯﾌﾟ体"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color indexed="12"/>
+      <sz val="13"/>
+    </font>
+    <font>
+      <name val="HG創英角ﾎﾟｯﾌﾟ体"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <sz val="13"/>
+    </font>
+    <font>
+      <name val="HG創英角ﾎﾟｯﾌﾟ体"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color indexed="10"/>
+      <sz val="13"/>
+    </font>
+    <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <sz val="30"/>
+    </font>
+    <font>
+      <name val="HG創英角ﾎﾟｯﾌﾟ体"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <sz val="30"/>
+    </font>
+    <font>
+      <name val="HGS創英角ﾎﾟｯﾌﾟ体"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <sz val="30"/>
+    </font>
+    <font>
+      <name val="HGS創英角ﾎﾟｯﾌﾟ体"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color indexed="9"/>
+      <sz val="30"/>
+    </font>
+    <font>
+      <name val="HG創英角ﾎﾟｯﾌﾟ体"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color indexed="12"/>
+      <sz val="30"/>
+    </font>
+    <font>
+      <name val="HG創英角ﾎﾟｯﾌﾟ体"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color indexed="10"/>
+      <sz val="30"/>
+    </font>
+    <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <sz val="40"/>
+    </font>
+    <font>
+      <name val="HG創英角ﾎﾟｯﾌﾟ体"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color indexed="9"/>
+      <sz val="40"/>
+    </font>
+    <font>
+      <name val="HGS創英角ﾎﾟｯﾌﾟ体"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <sz val="50"/>
+    </font>
+    <font>
+      <name val="HGS創英角ﾎﾟｯﾌﾟ体"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color indexed="9"/>
+      <sz val="50"/>
+    </font>
+    <font>
+      <name val="HGS創英角ﾎﾟｯﾌﾟ体"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="HGS創英角ﾎﾟｯﾌﾟ体"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color indexed="10"/>
+      <sz val="20"/>
+    </font>
+    <font>
+      <name val="HG創英角ﾎﾟｯﾌﾟ体"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color indexed="10"/>
+      <sz val="30"/>
+    </font>
+    <font>
+      <name val="HG創英角ﾎﾟｯﾌﾟ体"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <sz val="20"/>
+    </font>
+    <font>
+      <name val="HGS創英角ﾎﾟｯﾌﾟ体"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color indexed="9"/>
+      <sz val="22"/>
+    </font>
+    <font>
+      <name val="HG丸ｺﾞｼｯｸM-PRO"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <b val="1"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="HGS創英角ﾎﾟｯﾌﾟ体"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="ＪＳ平成明朝体W3"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <b val="1"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="HGS創英角ﾎﾟｯﾌﾟ体"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <sz val="72"/>
+    </font>
+    <font>
+      <name val="HG創英角ﾎﾟｯﾌﾟ体"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <sz val="72"/>
+    </font>
+    <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <sz val="72"/>
+    </font>
+    <font>
+      <name val="HG創英角ﾎﾟｯﾌﾟ体"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <sz val="70"/>
+    </font>
+    <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <sz val="70"/>
+    </font>
+    <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <b val="1"/>
+      <sz val="16"/>
+    </font>
+    <font>
+      <name val="ＭＳ Ｐ明朝"/>
+      <charset val="128"/>
+      <family val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="HG創英角ﾎﾟｯﾌﾟ体"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <sz val="28"/>
+    </font>
+    <font>
+      <name val="HG創英角ﾎﾟｯﾌﾟ体"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color indexed="12"/>
+      <sz val="36"/>
+    </font>
+    <font>
+      <name val="HG創英角ﾎﾟｯﾌﾟ体"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color indexed="10"/>
+      <sz val="36"/>
+    </font>
+    <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="FUJ明朝体"/>
+      <charset val="128"/>
+      <family val="1"/>
       <color theme="1"/>
       <sz val="11"/>
+    </font>
+    <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <sz val="11"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <sz val="8"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color indexed="9"/>
+      <sz val="8"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <sz val="35"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color indexed="9"/>
+      <sz val="30"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <sz val="30"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <sz val="50"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <sz val="16"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <sz val="10"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color rgb="FF000000"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color theme="1"/>
+      <sz val="9"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="HG丸ｺﾞｼｯｸM-PRO"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color theme="1"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color theme="1"/>
+      <sz val="30"/>
+      <scheme val="major"/>
+    </font>
+    <font>
       <name val="HG創英角ﾎﾟｯﾌﾟ体"/>
-      <color rgb="00000000"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color rgb="FFFF3399"/>
       <sz val="72"/>
     </font>
     <font>
       <name val="HG創英角ﾎﾟｯﾌﾟ体"/>
-      <color rgb="00FF00FF"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color rgb="FFFF3399"/>
+      <sz val="70"/>
+    </font>
+    <font>
+      <name val="HG創英角ﾎﾟｯﾌﾟ体"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color rgb="FF0066FF"/>
+      <sz val="70"/>
+    </font>
+    <font>
+      <name val="HG創英角ﾎﾟｯﾌﾟ体"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color rgb="FF0066FF"/>
       <sz val="72"/>
     </font>
     <font>
-      <name val="HG創英角ﾎﾟｯﾌﾟ体"/>
-      <color rgb="000000FF"/>
-      <sz val="72"/>
-    </font>
-    <font>
-      <name val="HG創英角ﾎﾟｯﾌﾟ体"/>
-      <color rgb="00FF00FF"/>
-      <sz val="70"/>
-    </font>
-    <font>
-      <name val="HG創英角ﾎﾟｯﾌﾟ体"/>
-      <color rgb="000000FF"/>
-      <sz val="70"/>
-    </font>
-    <font>
-      <name val="HG創英角ﾎﾟｯﾌﾟ体"/>
-      <color rgb="00000000"/>
-      <sz val="70"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color rgb="FFFF0000"/>
+      <sz val="30"/>
+      <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3333FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="67">
     <border>
       <left/>
       <right/>
@@ -74,123 +671,1818 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="00000000"/>
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color rgb="00000000"/>
-      </top>
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
-        <color rgb="00000000"/>
-      </bottom>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top style="thin">
-        <color rgb="00000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="00000000"/>
-      </bottom>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="00000000"/>
-      </left>
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="thin">
-        <color rgb="00000000"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color rgb="00000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="00000000"/>
-      </top>
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color rgb="00000000"/>
-      </right>
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="00000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="00000000"/>
-      </bottom>
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color rgb="00000000"/>
-      </right>
-      <top/>
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="00000000"/>
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
       <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="19">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="307">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="57" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="57" fontId="2" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="57" fontId="20" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="57" fontId="20" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="30" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="57" fontId="20" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="57" fontId="20" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="57" fontId="20" fillId="0" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="57" fontId="20" fillId="0" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="57" fontId="2" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="46" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="47" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="57" fontId="2" fillId="0" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="13">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="13">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="16">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="80" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="13">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="13">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="5" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="83" fillId="5" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="13">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="58" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="52" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="19">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 11" xfId="1"/>
+    <cellStyle name="標準 12" xfId="2"/>
+    <cellStyle name="標準 14" xfId="3"/>
+    <cellStyle name="標準 15" xfId="4"/>
+    <cellStyle name="標準 16" xfId="5"/>
+    <cellStyle name="標準 18" xfId="6"/>
+    <cellStyle name="標準 2" xfId="7"/>
+    <cellStyle name="標準 2 2" xfId="8"/>
+    <cellStyle name="標準 20" xfId="9"/>
+    <cellStyle name="標準 24" xfId="10"/>
+    <cellStyle name="標準 26" xfId="11"/>
+    <cellStyle name="標準 28" xfId="12"/>
+    <cellStyle name="標準 3" xfId="13"/>
+    <cellStyle name="標準 30" xfId="14"/>
+    <cellStyle name="標準 31" xfId="15"/>
+    <cellStyle name="標準 4" xfId="16"/>
+    <cellStyle name="標準 8" xfId="17"/>
+    <cellStyle name="標準 9" xfId="18"/>
   </cellStyles>
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <color indexed="9"/>
+        <extend val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <color indexed="9"/>
+        <extend val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <color indexed="9"/>
+        <extend val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <color indexed="9"/>
+        <extend val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <color indexed="9"/>
+        <extend val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <color indexed="9"/>
+        <extend val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <color indexed="9"/>
+        <extend val="0"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -264,7 +2556,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -541,7 +2833,70 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1" cy="1"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </a:spPr>
+      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
+      <a:lstStyle/>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1" cy="1"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </a:spPr>
+      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
+      <a:lstStyle/>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
@@ -550,304 +2905,1131 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:AA180"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="50" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="83.25"/>
   <cols>
-    <col width="15.75" customWidth="1" min="1" max="1"/>
-    <col width="100.125" customWidth="1" min="2" max="2"/>
-    <col width="15.75" customWidth="1" min="3" max="3"/>
-    <col width="100.125" customWidth="1" min="4" max="4"/>
+    <col width="15.75" customWidth="1" style="210" min="1" max="1"/>
+    <col width="100.125" customWidth="1" style="205" min="2" max="2"/>
+    <col width="15.75" customWidth="1" style="210" min="3" max="3"/>
+    <col width="100.125" customWidth="1" style="205" min="4" max="4"/>
+    <col width="9" customWidth="1" style="136" min="5" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="166.5" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1" ht="166.5" customFormat="1" customHeight="1" s="206">
+      <c r="A1" s="228" t="inlineStr">
+        <is>
+          <t>{{出席番号_1}}</t>
+        </is>
+      </c>
+      <c r="B1" s="226" t="inlineStr">
         <is>
           <t>{{氏名_1}}</t>
         </is>
       </c>
-      <c r="B1" s="2" t="n"/>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="230" t="inlineStr">
+        <is>
+          <t>{{出席番号_21}}</t>
+        </is>
+      </c>
+      <c r="D1" s="234" t="inlineStr">
         <is>
           <t>{{氏名_21}}</t>
         </is>
       </c>
-      <c r="D1" s="4" t="n"/>
-    </row>
-    <row r="2" ht="166.5" customHeight="1">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="F1" s="206" t="n"/>
+      <c r="H1" s="206" t="n"/>
+      <c r="K1" s="206" t="n"/>
+      <c r="M1" s="206" t="n"/>
+      <c r="P1" s="206" t="n"/>
+      <c r="S1" s="206" t="n"/>
+      <c r="U1" s="206" t="n"/>
+      <c r="X1" s="206" t="n"/>
+      <c r="Y1" s="206" t="n"/>
+      <c r="Z1" s="206" t="n"/>
+      <c r="AA1" s="206" t="n"/>
+    </row>
+    <row r="2" ht="166.5" customFormat="1" customHeight="1" s="207">
+      <c r="A2" s="228" t="inlineStr">
+        <is>
+          <t>{{出席番号_2}}</t>
+        </is>
+      </c>
+      <c r="B2" s="227" t="inlineStr">
         <is>
           <t>{{氏名_2}}</t>
         </is>
       </c>
-      <c r="B2" s="5" t="n"/>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C2" s="228" t="inlineStr">
+        <is>
+          <t>{{出席番号_22}}</t>
+        </is>
+      </c>
+      <c r="D2" s="232" t="inlineStr">
         <is>
           <t>{{氏名_22}}</t>
         </is>
       </c>
-      <c r="D2" s="6" t="n"/>
-    </row>
-    <row r="3" ht="166.5" customHeight="1">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="F2" s="207" t="n"/>
+      <c r="K2" s="207" t="n"/>
+      <c r="P2" s="207" t="n"/>
+      <c r="S2" s="207" t="n"/>
+      <c r="X2" s="207" t="n"/>
+      <c r="Y2" s="207" t="n"/>
+      <c r="Z2" s="207" t="n"/>
+      <c r="AA2" s="207" t="n"/>
+    </row>
+    <row r="3" ht="166.5" customFormat="1" customHeight="1" s="207">
+      <c r="A3" s="228" t="inlineStr">
+        <is>
+          <t>{{出席番号_3}}</t>
+        </is>
+      </c>
+      <c r="B3" s="231" t="inlineStr">
         <is>
           <t>{{氏名_3}}</t>
         </is>
       </c>
-      <c r="B3" s="7" t="n"/>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" s="230" t="inlineStr">
+        <is>
+          <t>{{出席番号_23}}</t>
+        </is>
+      </c>
+      <c r="D3" s="231" t="inlineStr">
         <is>
           <t>{{氏名_23}}</t>
         </is>
       </c>
-      <c r="D3" s="7" t="n"/>
-    </row>
-    <row r="4" ht="166.5" customHeight="1">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="E3" s="207" t="n"/>
+      <c r="F3" s="207" t="n"/>
+      <c r="J3" s="207" t="n"/>
+      <c r="K3" s="207" t="n"/>
+      <c r="O3" s="207" t="n"/>
+      <c r="P3" s="207" t="n"/>
+      <c r="R3" s="207" t="n"/>
+      <c r="S3" s="207" t="n"/>
+      <c r="W3" s="207" t="n"/>
+      <c r="X3" s="207" t="n"/>
+      <c r="Y3" s="207" t="n"/>
+      <c r="Z3" s="207" t="n"/>
+      <c r="AA3" s="207" t="n"/>
+    </row>
+    <row r="4" ht="166.5" customFormat="1" customHeight="1" s="207">
+      <c r="A4" s="228" t="inlineStr">
+        <is>
+          <t>{{出席番号_4}}</t>
+        </is>
+      </c>
+      <c r="B4" s="232" t="inlineStr">
         <is>
           <t>{{氏名_4}}</t>
         </is>
       </c>
-      <c r="B4" s="6" t="n"/>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C4" s="228" t="inlineStr">
+        <is>
+          <t>{{出席番号_24}}</t>
+        </is>
+      </c>
+      <c r="D4" s="231" t="inlineStr">
         <is>
           <t>{{氏名_24}}</t>
         </is>
       </c>
-      <c r="D4" s="7" t="n"/>
-    </row>
-    <row r="5" ht="166.5" customHeight="1">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="E4" s="207" t="n"/>
+      <c r="F4" s="207" t="n"/>
+      <c r="H4" s="207" t="n"/>
+      <c r="J4" s="207" t="n"/>
+      <c r="K4" s="207" t="n"/>
+      <c r="M4" s="207" t="n"/>
+      <c r="O4" s="207" t="n"/>
+      <c r="P4" s="207" t="n"/>
+      <c r="R4" s="207" t="n"/>
+      <c r="S4" s="207" t="n"/>
+      <c r="U4" s="207" t="n"/>
+      <c r="W4" s="207" t="n"/>
+      <c r="X4" s="207" t="n"/>
+      <c r="Y4" s="207" t="n"/>
+      <c r="Z4" s="207" t="n"/>
+      <c r="AA4" s="207" t="n"/>
+    </row>
+    <row r="5" ht="166.5" customFormat="1" customHeight="1" s="207">
+      <c r="A5" s="228" t="inlineStr">
+        <is>
+          <t>{{出席番号_5}}</t>
+        </is>
+      </c>
+      <c r="B5" s="232" t="inlineStr">
         <is>
           <t>{{氏名_5}}</t>
         </is>
       </c>
-      <c r="B5" s="6" t="n"/>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" s="230" t="inlineStr">
+        <is>
+          <t>{{出席番号_25}}</t>
+        </is>
+      </c>
+      <c r="D5" s="231" t="inlineStr">
         <is>
           <t>{{氏名_25}}</t>
         </is>
       </c>
-      <c r="D5" s="7" t="n"/>
-    </row>
-    <row r="6" ht="166.5" customHeight="1">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="H5" s="207" t="n"/>
+      <c r="M5" s="207" t="n"/>
+      <c r="U5" s="207" t="n"/>
+    </row>
+    <row r="6" ht="166.5" customFormat="1" customHeight="1" s="207">
+      <c r="A6" s="228" t="inlineStr">
+        <is>
+          <t>{{出席番号_6}}</t>
+        </is>
+      </c>
+      <c r="B6" s="232" t="inlineStr">
         <is>
           <t>{{氏名_6}}</t>
         </is>
       </c>
-      <c r="B6" s="6" t="n"/>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C6" s="228" t="inlineStr">
+        <is>
+          <t>{{出席番号_26}}</t>
+        </is>
+      </c>
+      <c r="D6" s="232" t="inlineStr">
         <is>
           <t>{{氏名_26}}</t>
         </is>
       </c>
-      <c r="D6" s="6" t="n"/>
-    </row>
-    <row r="7" ht="166.5" customHeight="1">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="F6" s="207" t="n"/>
+      <c r="H6" s="207" t="n"/>
+      <c r="K6" s="207" t="n"/>
+      <c r="M6" s="207" t="n"/>
+      <c r="P6" s="207" t="n"/>
+      <c r="S6" s="207" t="n"/>
+      <c r="U6" s="207" t="n"/>
+      <c r="X6" s="207" t="n"/>
+      <c r="Y6" s="207" t="n"/>
+      <c r="Z6" s="207" t="n"/>
+      <c r="AA6" s="207" t="n"/>
+    </row>
+    <row r="7" ht="166.5" customFormat="1" customHeight="1" s="207">
+      <c r="A7" s="228" t="inlineStr">
+        <is>
+          <t>{{出席番号_7}}</t>
+        </is>
+      </c>
+      <c r="B7" s="232" t="inlineStr">
         <is>
           <t>{{氏名_7}}</t>
         </is>
       </c>
-      <c r="B7" s="6" t="n"/>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C7" s="230" t="inlineStr">
+        <is>
+          <t>{{出席番号_27}}</t>
+        </is>
+      </c>
+      <c r="D7" s="231" t="inlineStr">
         <is>
           <t>{{氏名_27}}</t>
         </is>
       </c>
-      <c r="D7" s="7" t="n"/>
-    </row>
-    <row r="8" ht="166.5" customHeight="1">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="H7" s="207" t="n"/>
+      <c r="M7" s="207" t="n"/>
+      <c r="U7" s="207" t="n"/>
+    </row>
+    <row r="8" ht="166.5" customFormat="1" customHeight="1" s="207">
+      <c r="A8" s="228" t="inlineStr">
+        <is>
+          <t>{{出席番号_8}}</t>
+        </is>
+      </c>
+      <c r="B8" s="231" t="inlineStr">
         <is>
           <t>{{氏名_8}}</t>
         </is>
       </c>
-      <c r="B8" s="7" t="n"/>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C8" s="228" t="inlineStr">
+        <is>
+          <t>{{出席番号_28}}</t>
+        </is>
+      </c>
+      <c r="D8" s="232" t="inlineStr">
         <is>
           <t>{{氏名_28}}</t>
         </is>
       </c>
-      <c r="D8" s="6" t="n"/>
-    </row>
-    <row r="9" ht="166.5" customHeight="1">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="E8" s="207" t="n"/>
+      <c r="F8" s="207" t="n"/>
+      <c r="J8" s="207" t="n"/>
+      <c r="K8" s="207" t="n"/>
+      <c r="O8" s="207" t="n"/>
+      <c r="P8" s="207" t="n"/>
+      <c r="R8" s="207" t="n"/>
+      <c r="S8" s="207" t="n"/>
+      <c r="W8" s="207" t="n"/>
+      <c r="X8" s="207" t="n"/>
+      <c r="Y8" s="207" t="n"/>
+      <c r="Z8" s="207" t="n"/>
+      <c r="AA8" s="207" t="n"/>
+    </row>
+    <row r="9" ht="166.5" customFormat="1" customHeight="1" s="207">
+      <c r="A9" s="228" t="inlineStr">
+        <is>
+          <t>{{出席番号_9}}</t>
+        </is>
+      </c>
+      <c r="B9" s="232" t="inlineStr">
         <is>
           <t>{{氏名_9}}</t>
         </is>
       </c>
-      <c r="B9" s="6" t="n"/>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C9" s="230" t="inlineStr">
+        <is>
+          <t>{{出席番号_29}}</t>
+        </is>
+      </c>
+      <c r="D9" s="232" t="inlineStr">
         <is>
           <t>{{氏名_29}}</t>
         </is>
       </c>
-      <c r="D9" s="6" t="n"/>
-    </row>
-    <row r="10" ht="166.5" customHeight="1">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="E9" s="207" t="n"/>
+      <c r="F9" s="207" t="n"/>
+      <c r="J9" s="207" t="n"/>
+      <c r="K9" s="207" t="n"/>
+      <c r="O9" s="207" t="n"/>
+      <c r="P9" s="207" t="n"/>
+      <c r="R9" s="207" t="n"/>
+      <c r="S9" s="207" t="n"/>
+      <c r="W9" s="207" t="n"/>
+      <c r="X9" s="207" t="n"/>
+      <c r="Y9" s="207" t="n"/>
+      <c r="Z9" s="207" t="n"/>
+      <c r="AA9" s="207" t="n"/>
+    </row>
+    <row r="10" ht="166.5" customFormat="1" customHeight="1" s="207">
+      <c r="A10" s="228" t="inlineStr">
+        <is>
+          <t>{{出席番号_10}}</t>
+        </is>
+      </c>
+      <c r="B10" s="232" t="inlineStr">
         <is>
           <t>{{氏名_10}}</t>
         </is>
       </c>
-      <c r="B10" s="6" t="n"/>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C10" s="228" t="inlineStr">
+        <is>
+          <t>{{出席番号_30}}</t>
+        </is>
+      </c>
+      <c r="D10" s="231" t="inlineStr">
         <is>
           <t>{{氏名_30}}</t>
         </is>
       </c>
-      <c r="D10" s="7" t="n"/>
-    </row>
-    <row r="11" ht="166.5" customHeight="1">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="E10" s="207" t="n"/>
+      <c r="F10" s="207" t="n"/>
+      <c r="J10" s="207" t="n"/>
+      <c r="K10" s="207" t="n"/>
+      <c r="O10" s="207" t="n"/>
+      <c r="P10" s="207" t="n"/>
+      <c r="R10" s="207" t="n"/>
+      <c r="S10" s="207" t="n"/>
+      <c r="W10" s="207" t="n"/>
+      <c r="X10" s="207" t="n"/>
+      <c r="Y10" s="207" t="n"/>
+      <c r="Z10" s="207" t="n"/>
+      <c r="AA10" s="207" t="n"/>
+    </row>
+    <row r="11" ht="166.5" customFormat="1" customHeight="1" s="207">
+      <c r="A11" s="228" t="inlineStr">
+        <is>
+          <t>{{出席番号_11}}</t>
+        </is>
+      </c>
+      <c r="B11" s="232" t="inlineStr">
         <is>
           <t>{{氏名_11}}</t>
         </is>
       </c>
-      <c r="B11" s="6" t="n"/>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C11" s="230" t="inlineStr">
+        <is>
+          <t>{{出席番号_31}}</t>
+        </is>
+      </c>
+      <c r="D11" s="231" t="inlineStr">
         <is>
           <t>{{氏名_31}}</t>
         </is>
       </c>
-      <c r="D11" s="7" t="n"/>
-    </row>
-    <row r="12" ht="166.5" customHeight="1">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="F11" s="207" t="n"/>
+      <c r="H11" s="207" t="n"/>
+      <c r="K11" s="207" t="n"/>
+      <c r="M11" s="207" t="n"/>
+      <c r="P11" s="207" t="n"/>
+      <c r="S11" s="207" t="n"/>
+      <c r="U11" s="207" t="n"/>
+      <c r="X11" s="207" t="n"/>
+      <c r="Y11" s="207" t="n"/>
+      <c r="Z11" s="207" t="n"/>
+      <c r="AA11" s="207" t="n"/>
+    </row>
+    <row r="12" ht="166.5" customFormat="1" customHeight="1" s="207">
+      <c r="A12" s="228" t="inlineStr">
+        <is>
+          <t>{{出席番号_12}}</t>
+        </is>
+      </c>
+      <c r="B12" s="231" t="inlineStr">
         <is>
           <t>{{氏名_12}}</t>
         </is>
       </c>
-      <c r="B12" s="7" t="n"/>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C12" s="228" t="inlineStr">
+        <is>
+          <t>{{出席番号_32}}</t>
+        </is>
+      </c>
+      <c r="D12" s="232" t="inlineStr">
         <is>
           <t>{{氏名_32}}</t>
         </is>
       </c>
-      <c r="D12" s="6" t="n"/>
-    </row>
-    <row r="13" ht="166.5" customHeight="1">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="H12" s="207" t="n"/>
+      <c r="M12" s="207" t="n"/>
+      <c r="U12" s="207" t="n"/>
+    </row>
+    <row r="13" ht="166.5" customFormat="1" customHeight="1" s="207">
+      <c r="A13" s="228" t="inlineStr">
+        <is>
+          <t>{{出席番号_13}}</t>
+        </is>
+      </c>
+      <c r="B13" s="232" t="inlineStr">
         <is>
           <t>{{氏名_13}}</t>
         </is>
       </c>
-      <c r="B13" s="6" t="n"/>
-      <c r="C13" s="3" t="inlineStr">
+      <c r="C13" s="230" t="inlineStr">
+        <is>
+          <t>{{出席番号_33}}</t>
+        </is>
+      </c>
+      <c r="D13" s="209" t="inlineStr">
         <is>
           <t>{{氏名_33}}</t>
         </is>
       </c>
-      <c r="D13" s="8" t="n"/>
-    </row>
-    <row r="14" ht="166.5" customHeight="1">
-      <c r="A14" s="9" t="inlineStr">
+      <c r="E13" s="207" t="n"/>
+      <c r="F13" s="207" t="n"/>
+      <c r="J13" s="207" t="n"/>
+      <c r="K13" s="207" t="n"/>
+      <c r="O13" s="207" t="n"/>
+      <c r="P13" s="207" t="n"/>
+      <c r="R13" s="207" t="n"/>
+      <c r="S13" s="207" t="n"/>
+      <c r="W13" s="207" t="n"/>
+      <c r="X13" s="207" t="n"/>
+      <c r="Y13" s="207" t="n"/>
+      <c r="Z13" s="207" t="n"/>
+      <c r="AA13" s="207" t="n"/>
+    </row>
+    <row r="14" ht="166.5" customFormat="1" customHeight="1" s="207">
+      <c r="A14" s="229" t="inlineStr">
+        <is>
+          <t>{{出席番号_14}}</t>
+        </is>
+      </c>
+      <c r="B14" s="233" t="inlineStr">
         <is>
           <t>{{氏名_14}}</t>
         </is>
       </c>
-      <c r="B14" s="10" t="n"/>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C14" s="228" t="inlineStr">
+        <is>
+          <t>{{出席番号_34}}</t>
+        </is>
+      </c>
+      <c r="D14" s="208" t="inlineStr">
         <is>
           <t>{{氏名_34}}</t>
         </is>
       </c>
-      <c r="D14" s="11" t="n"/>
-    </row>
-    <row r="15" ht="166.5" customHeight="1">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="E14" s="207" t="n"/>
+      <c r="F14" s="207" t="n"/>
+      <c r="J14" s="207" t="n"/>
+      <c r="K14" s="207" t="n"/>
+      <c r="O14" s="207" t="n"/>
+      <c r="P14" s="207" t="n"/>
+      <c r="R14" s="207" t="n"/>
+      <c r="S14" s="207" t="n"/>
+      <c r="W14" s="207" t="n"/>
+      <c r="X14" s="207" t="n"/>
+      <c r="Y14" s="207" t="n"/>
+      <c r="Z14" s="207" t="n"/>
+      <c r="AA14" s="207" t="n"/>
+    </row>
+    <row r="15" ht="166.5" customFormat="1" customHeight="1" s="207">
+      <c r="A15" s="228" t="inlineStr">
+        <is>
+          <t>{{出席番号_15}}</t>
+        </is>
+      </c>
+      <c r="B15" s="231" t="inlineStr">
         <is>
           <t>{{氏名_15}}</t>
         </is>
       </c>
-      <c r="B15" s="7" t="n"/>
-      <c r="C15" s="3" t="inlineStr">
+      <c r="C15" s="230" t="inlineStr">
+        <is>
+          <t>{{出席番号_35}}</t>
+        </is>
+      </c>
+      <c r="D15" s="209" t="inlineStr">
         <is>
           <t>{{氏名_35}}</t>
         </is>
       </c>
-      <c r="D15" s="8" t="n"/>
-    </row>
-    <row r="16" ht="166.5" customHeight="1">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="E15" s="207" t="n"/>
+      <c r="F15" s="207" t="n"/>
+      <c r="J15" s="207" t="n"/>
+      <c r="K15" s="207" t="n"/>
+      <c r="O15" s="207" t="n"/>
+      <c r="P15" s="207" t="n"/>
+      <c r="R15" s="207" t="n"/>
+      <c r="S15" s="207" t="n"/>
+      <c r="W15" s="207" t="n"/>
+      <c r="X15" s="207" t="n"/>
+      <c r="Y15" s="207" t="n"/>
+      <c r="Z15" s="207" t="n"/>
+      <c r="AA15" s="207" t="n"/>
+    </row>
+    <row r="16" ht="166.5" customFormat="1" customHeight="1" s="207">
+      <c r="A16" s="228" t="inlineStr">
+        <is>
+          <t>{{出席番号_16}}</t>
+        </is>
+      </c>
+      <c r="B16" s="231" t="inlineStr">
         <is>
           <t>{{氏名_16}}</t>
         </is>
       </c>
-      <c r="B16" s="7" t="n"/>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C16" s="228" t="inlineStr">
+        <is>
+          <t>{{出席番号_36}}</t>
+        </is>
+      </c>
+      <c r="D16" s="208" t="inlineStr">
         <is>
           <t>{{氏名_36}}</t>
         </is>
       </c>
-      <c r="D16" s="11" t="n"/>
-    </row>
-    <row r="17" ht="166.5" customHeight="1">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="F16" s="207" t="n"/>
+      <c r="H16" s="207" t="n"/>
+      <c r="K16" s="207" t="n"/>
+      <c r="M16" s="207" t="n"/>
+      <c r="P16" s="207" t="n"/>
+      <c r="S16" s="207" t="n"/>
+      <c r="U16" s="207" t="n"/>
+      <c r="X16" s="207" t="n"/>
+      <c r="Y16" s="207" t="n"/>
+      <c r="Z16" s="207" t="n"/>
+      <c r="AA16" s="207" t="n"/>
+    </row>
+    <row r="17" ht="166.5" customFormat="1" customHeight="1" s="207">
+      <c r="A17" s="228" t="inlineStr">
+        <is>
+          <t>{{出席番号_17}}</t>
+        </is>
+      </c>
+      <c r="B17" s="232" t="inlineStr">
         <is>
           <t>{{氏名_17}}</t>
         </is>
       </c>
-      <c r="B17" s="6" t="n"/>
-      <c r="C17" s="3" t="inlineStr">
+      <c r="C17" s="230" t="inlineStr">
+        <is>
+          <t>{{出席番号_37}}</t>
+        </is>
+      </c>
+      <c r="D17" s="208" t="inlineStr">
         <is>
           <t>{{氏名_37}}</t>
         </is>
       </c>
-      <c r="D17" s="11" t="n"/>
-    </row>
-    <row r="18" ht="166.5" customHeight="1">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="H17" s="207" t="n"/>
+      <c r="M17" s="207" t="n"/>
+      <c r="U17" s="207" t="n"/>
+    </row>
+    <row r="18" ht="166.5" customFormat="1" customHeight="1" s="207">
+      <c r="A18" s="228" t="inlineStr">
+        <is>
+          <t>{{出席番号_18}}</t>
+        </is>
+      </c>
+      <c r="B18" s="231" t="inlineStr">
         <is>
           <t>{{氏名_18}}</t>
         </is>
       </c>
-      <c r="B18" s="7" t="n"/>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C18" s="228" t="inlineStr">
+        <is>
+          <t>{{出席番号_38}}</t>
+        </is>
+      </c>
+      <c r="D18" s="208" t="inlineStr">
         <is>
           <t>{{氏名_38}}</t>
         </is>
       </c>
-      <c r="D18" s="11" t="n"/>
-    </row>
-    <row r="19" ht="166.5" customHeight="1">
-      <c r="A19" s="1" t="inlineStr">
+      <c r="E18" s="207" t="n"/>
+      <c r="F18" s="207" t="n"/>
+      <c r="J18" s="207" t="n"/>
+      <c r="K18" s="207" t="n"/>
+      <c r="O18" s="207" t="n"/>
+      <c r="P18" s="207" t="n"/>
+      <c r="R18" s="207" t="n"/>
+      <c r="S18" s="207" t="n"/>
+      <c r="W18" s="207" t="n"/>
+      <c r="X18" s="207" t="n"/>
+      <c r="Y18" s="207" t="n"/>
+      <c r="Z18" s="207" t="n"/>
+      <c r="AA18" s="207" t="n"/>
+    </row>
+    <row r="19" ht="166.5" customFormat="1" customHeight="1" s="207">
+      <c r="A19" s="228" t="inlineStr">
+        <is>
+          <t>{{出席番号_19}}</t>
+        </is>
+      </c>
+      <c r="B19" s="231" t="inlineStr">
         <is>
           <t>{{氏名_19}}</t>
         </is>
       </c>
-      <c r="B19" s="7" t="n"/>
-      <c r="C19" s="3" t="inlineStr">
+      <c r="C19" s="230" t="inlineStr">
+        <is>
+          <t>{{出席番号_39}}</t>
+        </is>
+      </c>
+      <c r="D19" s="208" t="inlineStr">
         <is>
           <t>{{氏名_39}}</t>
         </is>
       </c>
-      <c r="D19" s="11" t="n"/>
-    </row>
-    <row r="20" ht="166.5" customHeight="1">
-      <c r="A20" s="1" t="inlineStr">
+      <c r="E19" s="207" t="n"/>
+      <c r="F19" s="207" t="n"/>
+      <c r="J19" s="207" t="n"/>
+      <c r="K19" s="207" t="n"/>
+      <c r="O19" s="207" t="n"/>
+      <c r="P19" s="207" t="n"/>
+      <c r="R19" s="207" t="n"/>
+      <c r="S19" s="207" t="n"/>
+      <c r="W19" s="207" t="n"/>
+      <c r="X19" s="207" t="n"/>
+      <c r="Y19" s="207" t="n"/>
+      <c r="Z19" s="207" t="n"/>
+      <c r="AA19" s="207" t="n"/>
+    </row>
+    <row r="20" ht="166.5" customFormat="1" customHeight="1" s="207">
+      <c r="A20" s="228" t="inlineStr">
+        <is>
+          <t>{{出席番号_20}}</t>
+        </is>
+      </c>
+      <c r="B20" s="232" t="inlineStr">
         <is>
           <t>{{氏名_20}}</t>
         </is>
       </c>
-      <c r="B20" s="6" t="n"/>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C20" s="228" t="inlineStr">
+        <is>
+          <t>{{出席番号_40}}</t>
+        </is>
+      </c>
+      <c r="D20" s="208" t="inlineStr">
         <is>
           <t>{{氏名_40}}</t>
         </is>
       </c>
-      <c r="D20" s="11" t="n"/>
+      <c r="E20" s="207" t="n"/>
+      <c r="F20" s="207" t="n"/>
+      <c r="J20" s="207" t="n"/>
+      <c r="K20" s="207" t="n"/>
+      <c r="O20" s="207" t="n"/>
+      <c r="P20" s="207" t="n"/>
+      <c r="R20" s="207" t="n"/>
+      <c r="S20" s="207" t="n"/>
+      <c r="W20" s="207" t="n"/>
+      <c r="X20" s="207" t="n"/>
+      <c r="Y20" s="207" t="n"/>
+      <c r="Z20" s="207" t="n"/>
+      <c r="AA20" s="207" t="n"/>
+    </row>
+    <row r="21" ht="48" customHeight="1" s="5"/>
+    <row r="22" ht="48" customHeight="1" s="5"/>
+    <row r="23" ht="48" customHeight="1" s="5"/>
+    <row r="24" ht="45" customHeight="1" s="5"/>
+    <row r="25" ht="45" customHeight="1" s="5"/>
+    <row r="26" ht="48" customHeight="1" s="5"/>
+    <row r="27" ht="48" customHeight="1" s="5"/>
+    <row r="28" ht="48" customHeight="1" s="5"/>
+    <row r="29"/>
+    <row r="30" ht="90.75" customHeight="1" s="5">
+      <c r="B30" s="205" t="n"/>
+    </row>
+    <row r="31" ht="90.75" customHeight="1" s="5">
+      <c r="B31" s="205" t="n"/>
+    </row>
+    <row r="32" ht="90.75" customHeight="1" s="5">
+      <c r="B32" s="205" t="n"/>
+    </row>
+    <row r="33" ht="90.75" customHeight="1" s="5">
+      <c r="B33" s="205" t="n"/>
+    </row>
+    <row r="34" ht="90.75" customHeight="1" s="5">
+      <c r="B34" s="205" t="n"/>
+    </row>
+    <row r="35" ht="90.75" customHeight="1" s="5">
+      <c r="B35" s="205" t="n"/>
+    </row>
+    <row r="36" ht="90.75" customHeight="1" s="5">
+      <c r="B36" s="205" t="n"/>
+    </row>
+    <row r="37" ht="90.75" customHeight="1" s="5">
+      <c r="B37" s="205" t="n"/>
+    </row>
+    <row r="38" ht="90.75" customHeight="1" s="5">
+      <c r="B38" s="205" t="n"/>
+    </row>
+    <row r="39" ht="90.75" customHeight="1" s="5">
+      <c r="B39" s="205" t="n"/>
+    </row>
+    <row r="40" ht="90.75" customHeight="1" s="5">
+      <c r="B40" s="205" t="n"/>
+    </row>
+    <row r="41" ht="90.75" customHeight="1" s="5">
+      <c r="B41" s="205" t="n"/>
+    </row>
+    <row r="42" ht="90.75" customHeight="1" s="5">
+      <c r="B42" s="205" t="n"/>
+    </row>
+    <row r="43" ht="90.75" customHeight="1" s="5">
+      <c r="B43" s="205" t="n"/>
+    </row>
+    <row r="44" ht="90.75" customHeight="1" s="5">
+      <c r="B44" s="205" t="n"/>
+    </row>
+    <row r="45" ht="90.75" customHeight="1" s="5">
+      <c r="B45" s="205" t="n"/>
+    </row>
+    <row r="46" ht="90.75" customHeight="1" s="5">
+      <c r="B46" s="205" t="n"/>
+    </row>
+    <row r="47" ht="90.75" customHeight="1" s="5">
+      <c r="B47" s="205" t="n"/>
+    </row>
+    <row r="48"/>
+    <row r="49" ht="90.75" customHeight="1" s="5">
+      <c r="B49" s="205" t="n"/>
+    </row>
+    <row r="50" ht="90.75" customHeight="1" s="5">
+      <c r="B50" s="205" t="n"/>
+    </row>
+    <row r="51" ht="90.75" customHeight="1" s="5">
+      <c r="B51" s="205" t="n"/>
+    </row>
+    <row r="52" ht="90.75" customHeight="1" s="5">
+      <c r="B52" s="205" t="n"/>
+    </row>
+    <row r="53" ht="90.75" customHeight="1" s="5">
+      <c r="B53" s="205" t="n"/>
+    </row>
+    <row r="54" ht="90.75" customHeight="1" s="5">
+      <c r="B54" s="205" t="n"/>
+    </row>
+    <row r="55" ht="90.75" customHeight="1" s="5">
+      <c r="B55" s="205" t="n"/>
+    </row>
+    <row r="56" ht="90.75" customHeight="1" s="5">
+      <c r="B56" s="205" t="n"/>
+    </row>
+    <row r="57" ht="90.75" customHeight="1" s="5">
+      <c r="B57" s="205" t="n"/>
+    </row>
+    <row r="58" ht="90.75" customHeight="1" s="5">
+      <c r="B58" s="205" t="n"/>
+    </row>
+    <row r="59" ht="90.75" customHeight="1" s="5">
+      <c r="B59" s="205" t="n"/>
+    </row>
+    <row r="60" ht="90.75" customHeight="1" s="5">
+      <c r="B60" s="205" t="n"/>
+    </row>
+    <row r="61" ht="90.75" customHeight="1" s="5">
+      <c r="B61" s="205" t="n"/>
+    </row>
+    <row r="62" ht="90.75" customHeight="1" s="5">
+      <c r="B62" s="205" t="n"/>
+    </row>
+    <row r="63" ht="90.75" customHeight="1" s="5">
+      <c r="B63" s="205" t="n"/>
+    </row>
+    <row r="64" ht="90.75" customHeight="1" s="5">
+      <c r="B64" s="205" t="n"/>
+    </row>
+    <row r="65" ht="90.75" customHeight="1" s="5">
+      <c r="B65" s="205" t="n"/>
+    </row>
+    <row r="66" ht="90.75" customHeight="1" s="5">
+      <c r="B66" s="205" t="n"/>
+    </row>
+    <row r="67"/>
+    <row r="68" ht="90.75" customHeight="1" s="5">
+      <c r="B68" s="205" t="n"/>
+    </row>
+    <row r="69" ht="90.75" customHeight="1" s="5">
+      <c r="B69" s="205" t="n"/>
+    </row>
+    <row r="70" ht="90.75" customHeight="1" s="5">
+      <c r="B70" s="205" t="n"/>
+    </row>
+    <row r="71" ht="90.75" customHeight="1" s="5">
+      <c r="B71" s="205" t="n"/>
+    </row>
+    <row r="72" ht="90.75" customHeight="1" s="5">
+      <c r="B72" s="205" t="n"/>
+    </row>
+    <row r="73" ht="90.75" customHeight="1" s="5">
+      <c r="B73" s="205" t="n"/>
+    </row>
+    <row r="74" ht="90.75" customHeight="1" s="5">
+      <c r="B74" s="205" t="n"/>
+    </row>
+    <row r="75" ht="90.75" customHeight="1" s="5">
+      <c r="B75" s="205" t="n"/>
+    </row>
+    <row r="76" ht="90.75" customHeight="1" s="5">
+      <c r="B76" s="205" t="n"/>
+    </row>
+    <row r="77" ht="90.75" customHeight="1" s="5">
+      <c r="B77" s="205" t="n"/>
+    </row>
+    <row r="78" ht="90.75" customHeight="1" s="5">
+      <c r="B78" s="205" t="n"/>
+    </row>
+    <row r="79" ht="90.75" customHeight="1" s="5">
+      <c r="B79" s="205" t="n"/>
+    </row>
+    <row r="80" ht="90.75" customHeight="1" s="5">
+      <c r="B80" s="205" t="n"/>
+    </row>
+    <row r="81" ht="90.75" customHeight="1" s="5">
+      <c r="B81" s="205" t="n"/>
+    </row>
+    <row r="82" ht="90.75" customHeight="1" s="5">
+      <c r="B82" s="205" t="n"/>
+    </row>
+    <row r="83" ht="90.75" customHeight="1" s="5">
+      <c r="B83" s="205" t="n"/>
+    </row>
+    <row r="84"/>
+    <row r="85" ht="90.75" customHeight="1" s="5">
+      <c r="B85" s="205" t="n"/>
+    </row>
+    <row r="86" ht="90.75" customHeight="1" s="5">
+      <c r="B86" s="205" t="n"/>
+    </row>
+    <row r="87" ht="90.75" customHeight="1" s="5">
+      <c r="B87" s="205" t="n"/>
+    </row>
+    <row r="88" ht="90.75" customHeight="1" s="5">
+      <c r="B88" s="205" t="n"/>
+    </row>
+    <row r="89" ht="90.75" customHeight="1" s="5">
+      <c r="B89" s="205" t="n"/>
+    </row>
+    <row r="90" ht="90.75" customHeight="1" s="5">
+      <c r="B90" s="205" t="n"/>
+    </row>
+    <row r="91" ht="90.75" customHeight="1" s="5">
+      <c r="B91" s="205" t="n"/>
+    </row>
+    <row r="92" ht="90.75" customHeight="1" s="5">
+      <c r="B92" s="205" t="n"/>
+    </row>
+    <row r="93" ht="90.75" customHeight="1" s="5">
+      <c r="B93" s="205" t="n"/>
+    </row>
+    <row r="94" ht="90.75" customHeight="1" s="5">
+      <c r="B94" s="205" t="n"/>
+    </row>
+    <row r="95" ht="90.75" customHeight="1" s="5">
+      <c r="B95" s="205" t="n"/>
+    </row>
+    <row r="96" ht="90.75" customHeight="1" s="5">
+      <c r="B96" s="205" t="n"/>
+    </row>
+    <row r="97" ht="90.75" customHeight="1" s="5">
+      <c r="B97" s="205" t="n"/>
+    </row>
+    <row r="98" ht="90.75" customHeight="1" s="5">
+      <c r="B98" s="205" t="n"/>
+    </row>
+    <row r="99" ht="90.75" customHeight="1" s="5">
+      <c r="B99" s="205" t="n"/>
+    </row>
+    <row r="100" ht="90.75" customHeight="1" s="5">
+      <c r="B100" s="205" t="n"/>
+    </row>
+    <row r="101" ht="90.75" customHeight="1" s="5">
+      <c r="B101" s="205" t="n"/>
+    </row>
+    <row r="102" ht="90.75" customHeight="1" s="5">
+      <c r="B102" s="205" t="n"/>
+    </row>
+    <row r="103" ht="90.75" customHeight="1" s="5">
+      <c r="B103" s="205" t="n"/>
+    </row>
+    <row r="104" ht="90.75" customHeight="1" s="5">
+      <c r="B104" s="205" t="n"/>
+    </row>
+    <row r="105" ht="90.75" customHeight="1" s="5">
+      <c r="B105" s="205" t="n"/>
+    </row>
+    <row r="106" ht="90.75" customHeight="1" s="5">
+      <c r="B106" s="205" t="n"/>
+    </row>
+    <row r="107" ht="90.75" customHeight="1" s="5">
+      <c r="B107" s="205" t="n"/>
+    </row>
+    <row r="108" ht="90.75" customHeight="1" s="5">
+      <c r="B108" s="205" t="n"/>
+    </row>
+    <row r="109" ht="90.75" customHeight="1" s="5">
+      <c r="B109" s="205" t="n"/>
+    </row>
+    <row r="110" ht="90.75" customHeight="1" s="5">
+      <c r="B110" s="205" t="n"/>
+    </row>
+    <row r="111" ht="90.75" customHeight="1" s="5">
+      <c r="B111" s="205" t="n"/>
+    </row>
+    <row r="112" ht="90.75" customHeight="1" s="5">
+      <c r="B112" s="205" t="n"/>
+    </row>
+    <row r="113" ht="90.75" customHeight="1" s="5">
+      <c r="B113" s="205" t="n"/>
+    </row>
+    <row r="114" ht="90.75" customHeight="1" s="5">
+      <c r="B114" s="205" t="n"/>
+    </row>
+    <row r="115" ht="90.75" customHeight="1" s="5">
+      <c r="B115" s="205" t="n"/>
+    </row>
+    <row r="116" ht="90.75" customHeight="1" s="5">
+      <c r="B116" s="205" t="n"/>
+    </row>
+    <row r="117" ht="90.75" customHeight="1" s="5">
+      <c r="B117" s="205" t="n"/>
+    </row>
+    <row r="118" ht="90.75" customHeight="1" s="5">
+      <c r="B118" s="205" t="n"/>
+    </row>
+    <row r="119" ht="90.75" customHeight="1" s="5">
+      <c r="B119" s="205" t="n"/>
+    </row>
+    <row r="120" ht="90.75" customHeight="1" s="5">
+      <c r="B120" s="205" t="n"/>
+    </row>
+    <row r="121" ht="90.75" customHeight="1" s="5">
+      <c r="B121" s="205" t="n"/>
+    </row>
+    <row r="122" ht="90.75" customHeight="1" s="5">
+      <c r="B122" s="205" t="n"/>
+    </row>
+    <row r="123" ht="90.75" customHeight="1" s="5">
+      <c r="B123" s="205" t="n"/>
+    </row>
+    <row r="124" ht="90.75" customHeight="1" s="5">
+      <c r="B124" s="205" t="n"/>
+    </row>
+    <row r="125" ht="90.75" customHeight="1" s="5">
+      <c r="B125" s="205" t="n"/>
+    </row>
+    <row r="126" ht="90.75" customHeight="1" s="5">
+      <c r="B126" s="205" t="n"/>
+    </row>
+    <row r="127" ht="90.75" customHeight="1" s="5">
+      <c r="B127" s="205" t="n"/>
+    </row>
+    <row r="128" ht="90.75" customHeight="1" s="5">
+      <c r="B128" s="205" t="n"/>
+    </row>
+    <row r="129" ht="90.75" customHeight="1" s="5">
+      <c r="B129" s="205" t="n"/>
+    </row>
+    <row r="130" ht="90.75" customHeight="1" s="5">
+      <c r="B130" s="205" t="n"/>
+    </row>
+    <row r="131" ht="90.75" customHeight="1" s="5">
+      <c r="B131" s="205" t="n"/>
+    </row>
+    <row r="132" ht="90.75" customHeight="1" s="5">
+      <c r="B132" s="205" t="n"/>
+    </row>
+    <row r="133" ht="90.75" customHeight="1" s="5">
+      <c r="B133" s="205" t="n"/>
+    </row>
+    <row r="134" ht="90.75" customHeight="1" s="5">
+      <c r="B134" s="205" t="n"/>
+    </row>
+    <row r="135" ht="90.75" customHeight="1" s="5">
+      <c r="B135" s="205" t="n"/>
+    </row>
+    <row r="136" ht="90.75" customHeight="1" s="5">
+      <c r="B136" s="205" t="n"/>
+    </row>
+    <row r="137" ht="90.75" customHeight="1" s="5">
+      <c r="B137" s="205" t="n"/>
+    </row>
+    <row r="138" ht="90.75" customHeight="1" s="5">
+      <c r="B138" s="205" t="n"/>
+    </row>
+    <row r="139" ht="90.75" customHeight="1" s="5">
+      <c r="B139" s="205" t="n"/>
+    </row>
+    <row r="140" ht="90.75" customHeight="1" s="5">
+      <c r="B140" s="205" t="n"/>
+    </row>
+    <row r="141" ht="90.75" customHeight="1" s="5">
+      <c r="B141" s="205" t="n"/>
+    </row>
+    <row r="142" ht="90.75" customHeight="1" s="5">
+      <c r="B142" s="205" t="n"/>
+    </row>
+    <row r="143" ht="90.75" customHeight="1" s="5">
+      <c r="B143" s="205" t="n"/>
+    </row>
+    <row r="144" ht="90.75" customHeight="1" s="5">
+      <c r="B144" s="205" t="n"/>
+    </row>
+    <row r="145" ht="90.75" customHeight="1" s="5">
+      <c r="B145" s="205" t="n"/>
+    </row>
+    <row r="146" ht="90.75" customHeight="1" s="5">
+      <c r="B146" s="205" t="n"/>
+    </row>
+    <row r="147" ht="90.75" customHeight="1" s="5">
+      <c r="B147" s="205" t="n"/>
+    </row>
+    <row r="148" ht="90.75" customHeight="1" s="5">
+      <c r="B148" s="205" t="n"/>
+    </row>
+    <row r="149" ht="90.75" customHeight="1" s="5">
+      <c r="B149" s="205" t="n"/>
+    </row>
+    <row r="150" ht="90.75" customHeight="1" s="5">
+      <c r="B150" s="205" t="n"/>
+    </row>
+    <row r="151" ht="90.75" customHeight="1" s="5">
+      <c r="B151" s="205" t="n"/>
+    </row>
+    <row r="152" ht="90.75" customHeight="1" s="5">
+      <c r="B152" s="205" t="n"/>
+    </row>
+    <row r="153" ht="90.75" customHeight="1" s="5">
+      <c r="B153" s="205" t="n"/>
+    </row>
+    <row r="154" ht="90.75" customHeight="1" s="5">
+      <c r="B154" s="205" t="n"/>
+    </row>
+    <row r="155" ht="90.75" customHeight="1" s="5">
+      <c r="B155" s="205" t="n"/>
+    </row>
+    <row r="156" ht="90.75" customHeight="1" s="5">
+      <c r="B156" s="205" t="n"/>
+    </row>
+    <row r="157" ht="90.75" customHeight="1" s="5">
+      <c r="B157" s="205" t="n"/>
+    </row>
+    <row r="158" ht="90.75" customHeight="1" s="5">
+      <c r="B158" s="205" t="n"/>
+    </row>
+    <row r="159" ht="90.75" customHeight="1" s="5">
+      <c r="B159" s="205" t="n"/>
+    </row>
+    <row r="160" ht="90.75" customHeight="1" s="5">
+      <c r="B160" s="205" t="n"/>
+    </row>
+    <row r="161" ht="90.75" customHeight="1" s="5">
+      <c r="B161" s="205" t="n"/>
+    </row>
+    <row r="162" ht="90.75" customHeight="1" s="5">
+      <c r="B162" s="205" t="n"/>
+    </row>
+    <row r="163" ht="90.75" customHeight="1" s="5">
+      <c r="B163" s="205" t="n"/>
+    </row>
+    <row r="164" ht="90.75" customHeight="1" s="5">
+      <c r="B164" s="205" t="n"/>
+    </row>
+    <row r="165" ht="90.75" customHeight="1" s="5">
+      <c r="B165" s="205" t="n"/>
+    </row>
+    <row r="166" ht="90.75" customHeight="1" s="5">
+      <c r="B166" s="205" t="n"/>
+    </row>
+    <row r="167" ht="90.75" customHeight="1" s="5">
+      <c r="B167" s="205" t="n"/>
+    </row>
+    <row r="168" ht="90.75" customHeight="1" s="5">
+      <c r="B168" s="205" t="n"/>
+    </row>
+    <row r="169" ht="90.75" customHeight="1" s="5">
+      <c r="B169" s="205" t="n"/>
+    </row>
+    <row r="170" ht="90.75" customHeight="1" s="5">
+      <c r="B170" s="205" t="n"/>
+    </row>
+    <row r="171" ht="90.75" customHeight="1" s="5">
+      <c r="B171" s="205" t="n"/>
+    </row>
+    <row r="172" ht="90.75" customHeight="1" s="5">
+      <c r="B172" s="205" t="n"/>
+    </row>
+    <row r="173" ht="90.75" customHeight="1" s="5">
+      <c r="B173" s="205" t="n"/>
+    </row>
+    <row r="174" ht="90.75" customHeight="1" s="5">
+      <c r="B174" s="205" t="n"/>
+    </row>
+    <row r="175" ht="90.75" customHeight="1" s="5">
+      <c r="B175" s="205" t="n"/>
+    </row>
+    <row r="176" ht="90.75" customHeight="1" s="5">
+      <c r="B176" s="205" t="n"/>
+    </row>
+    <row r="177" ht="90.75" customHeight="1" s="5">
+      <c r="B177" s="205" t="n"/>
+    </row>
+    <row r="178" ht="90.75" customHeight="1" s="5">
+      <c r="B178" s="205" t="n"/>
+    </row>
+    <row r="179" ht="90.75" customHeight="1" s="5">
+      <c r="B179" s="205" t="n"/>
+    </row>
+    <row r="180" ht="90.75" customHeight="1" s="5">
+      <c r="B180" s="205" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.2" right="0.2" top="0.2" bottom="0.2" header="0.1" footer="0.1"/>
-  <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.3937007874015748" bottom="0.3937007874015748" header="0" footer="0"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="42" verticalDpi="300"/>
 </worksheet>
 </file>